--- a/SetConsoleLocationMap.xlsx
+++ b/SetConsoleLocationMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarno\Desktop\RaceSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22435D3-1113-41E9-B6DB-A4E06C3847AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936C6897-71A8-40B0-9AF1-1DAB7CDD1930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{E618868F-C2E5-48DF-9C0C-2EDBEBA5857E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="19">
   <si>
     <t>-</t>
   </si>
@@ -82,12 +82,24 @@
   <si>
     <t>(0, -8)</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>rechts oost</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +130,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -222,15 +241,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -547,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0344BCDF-EBE8-4DFA-A074-0726BEC71568}">
   <dimension ref="D5:BE105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="44" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AT39" sqref="AT39"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="80" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -691,7 +705,7 @@
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
-      <c r="AK8" s="20">
+      <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="s">
@@ -746,6 +760,9 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -757,8 +774,12 @@
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
+      <c r="X9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
@@ -768,7 +789,7 @@
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
-      <c r="AK9" s="20">
+      <c r="AK9">
         <v>1</v>
       </c>
       <c r="AL9" s="4"/>
@@ -809,7 +830,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -818,8 +841,12 @@
       </c>
       <c r="V10" s="18"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
+      <c r="X10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
@@ -829,7 +856,7 @@
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
-      <c r="AK10" s="20">
+      <c r="AK10">
         <v>2</v>
       </c>
       <c r="AL10" s="18"/>
@@ -897,7 +924,7 @@
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
-      <c r="AK11" s="28">
+      <c r="AK11">
         <v>3</v>
       </c>
       <c r="AL11" s="4" t="s">
@@ -962,7 +989,7 @@
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
-      <c r="AK12" s="28">
+      <c r="AK12">
         <v>4</v>
       </c>
       <c r="AL12" s="3"/>
@@ -1016,7 +1043,7 @@
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
-      <c r="AK13" s="28">
+      <c r="AK13">
         <v>5</v>
       </c>
       <c r="AM13" s="4"/>
@@ -1320,7 +1347,9 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1372,7 +1401,9 @@
       <c r="K24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1457,7 +1488,7 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="4:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="D26" s="22"/>
+      <c r="D26" s="20"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -1478,8 +1509,12 @@
       <c r="W26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
+      <c r="X26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="Z26" s="4" t="s">
         <v>3</v>
       </c>
@@ -1800,7 +1835,7 @@
     </row>
     <row r="39" spans="4:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="D39" s="19"/>
-      <c r="I39" s="20">
+      <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
@@ -1815,15 +1850,6 @@
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="AM39" s="23"/>
-      <c r="AN39" s="23"/>
-      <c r="AO39" s="23"/>
-      <c r="AP39" s="23"/>
-      <c r="AQ39" s="23"/>
-      <c r="AR39" s="23"/>
-      <c r="AS39" s="23"/>
-      <c r="AT39" s="23"/>
-      <c r="AU39" s="23"/>
       <c r="AX39">
         <v>0</v>
       </c>
@@ -1850,11 +1876,13 @@
       </c>
     </row>
     <row r="40" spans="4:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="I40" s="21">
+      <c r="I40" s="6">
         <v>1</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -1863,17 +1891,16 @@
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="AM40" s="23"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="24"/>
-      <c r="AP40" s="24"/>
-      <c r="AQ40" s="24"/>
-      <c r="AR40" s="24"/>
-      <c r="AS40" s="24"/>
-      <c r="AT40" s="24"/>
-      <c r="AU40" s="24"/>
-      <c r="AV40" s="24"/>
-      <c r="AW40" s="20">
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="21"/>
+      <c r="AS40" s="21"/>
+      <c r="AT40" s="21"/>
+      <c r="AU40" s="21"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40">
         <v>0</v>
       </c>
       <c r="AX40" s="2" t="s">
@@ -1890,29 +1917,31 @@
       <c r="BE40" s="1"/>
     </row>
     <row r="41" spans="4:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="I41" s="20">
+      <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="AM41" s="25"/>
-      <c r="AN41" s="24"/>
-      <c r="AO41" s="24"/>
-      <c r="AP41" s="24"/>
-      <c r="AQ41" s="24"/>
-      <c r="AR41" s="24"/>
-      <c r="AS41" s="24"/>
-      <c r="AT41" s="24"/>
-      <c r="AU41" s="24"/>
-      <c r="AW41" s="21">
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="21"/>
+      <c r="AW41" s="6">
         <v>1</v>
       </c>
       <c r="AX41" s="1"/>
@@ -1927,7 +1956,7 @@
       <c r="BE41" s="1"/>
     </row>
     <row r="42" spans="4:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="I42" s="20">
+      <c r="I42">
         <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -1946,16 +1975,15 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="AM42" s="23"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="24"/>
-      <c r="AP42" s="24"/>
-      <c r="AQ42" s="24"/>
-      <c r="AR42" s="24"/>
-      <c r="AS42" s="24"/>
-      <c r="AT42" s="24"/>
-      <c r="AU42" s="24"/>
-      <c r="AW42" s="20">
+      <c r="AN42" s="21"/>
+      <c r="AO42" s="21"/>
+      <c r="AP42" s="21"/>
+      <c r="AQ42" s="21"/>
+      <c r="AR42" s="21"/>
+      <c r="AS42" s="21"/>
+      <c r="AT42" s="21"/>
+      <c r="AU42" s="21"/>
+      <c r="AW42">
         <v>2</v>
       </c>
       <c r="AX42" s="1"/>
@@ -1970,7 +1998,7 @@
       <c r="BE42" s="1"/>
     </row>
     <row r="43" spans="4:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="I43" s="20">
+      <c r="I43">
         <v>4</v>
       </c>
       <c r="J43" s="3"/>
@@ -1981,16 +2009,15 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="AM43" s="23"/>
-      <c r="AN43" s="24"/>
-      <c r="AO43" s="24"/>
-      <c r="AP43" s="24"/>
-      <c r="AQ43" s="24"/>
-      <c r="AR43" s="24"/>
-      <c r="AS43" s="24"/>
-      <c r="AT43" s="24"/>
-      <c r="AU43" s="24"/>
-      <c r="AW43" s="20">
+      <c r="AN43" s="21"/>
+      <c r="AO43" s="21"/>
+      <c r="AP43" s="21"/>
+      <c r="AQ43" s="21"/>
+      <c r="AR43" s="21"/>
+      <c r="AS43" s="21"/>
+      <c r="AT43" s="21"/>
+      <c r="AU43" s="21"/>
+      <c r="AW43">
         <v>3</v>
       </c>
       <c r="AX43" s="1" t="s">
@@ -2022,16 +2049,15 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="AM44" s="23"/>
-      <c r="AN44" s="24"/>
-      <c r="AO44" s="24"/>
-      <c r="AP44" s="24"/>
-      <c r="AQ44" s="24"/>
-      <c r="AR44" s="24"/>
-      <c r="AS44" s="24"/>
-      <c r="AT44" s="24"/>
-      <c r="AU44" s="24"/>
-      <c r="AW44" s="20">
+      <c r="AN44" s="21"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="21"/>
+      <c r="AQ44" s="21"/>
+      <c r="AR44" s="21"/>
+      <c r="AS44" s="21"/>
+      <c r="AT44" s="21"/>
+      <c r="AU44" s="21"/>
+      <c r="AW44">
         <v>4</v>
       </c>
       <c r="AX44" s="3"/>
@@ -2055,15 +2081,14 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="AM45" s="23"/>
-      <c r="AN45" s="25"/>
-      <c r="AO45" s="24"/>
-      <c r="AP45" s="24"/>
-      <c r="AQ45" s="24"/>
-      <c r="AR45" s="24"/>
-      <c r="AS45" s="24"/>
-      <c r="AT45" s="24"/>
-      <c r="AU45" s="24"/>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="21"/>
+      <c r="AP45" s="21"/>
+      <c r="AQ45" s="21"/>
+      <c r="AR45" s="21"/>
+      <c r="AS45" s="21"/>
+      <c r="AT45" s="21"/>
+      <c r="AU45" s="21"/>
       <c r="AW45">
         <v>5</v>
       </c>
@@ -2088,15 +2113,14 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="AM46" s="23"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="24"/>
-      <c r="AP46" s="24"/>
-      <c r="AQ46" s="24"/>
-      <c r="AR46" s="24"/>
-      <c r="AS46" s="24"/>
-      <c r="AT46" s="24"/>
-      <c r="AU46" s="24"/>
+      <c r="AN46" s="21"/>
+      <c r="AO46" s="21"/>
+      <c r="AP46" s="21"/>
+      <c r="AQ46" s="21"/>
+      <c r="AR46" s="21"/>
+      <c r="AS46" s="21"/>
+      <c r="AT46" s="21"/>
+      <c r="AU46" s="21"/>
       <c r="AW46">
         <v>6</v>
       </c>
@@ -2121,15 +2145,14 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24"/>
-      <c r="AQ47" s="24"/>
-      <c r="AR47" s="24"/>
-      <c r="AS47" s="24"/>
-      <c r="AT47" s="24"/>
-      <c r="AU47" s="24"/>
+      <c r="AN47" s="21"/>
+      <c r="AO47" s="21"/>
+      <c r="AP47" s="21"/>
+      <c r="AQ47" s="21"/>
+      <c r="AR47" s="21"/>
+      <c r="AS47" s="21"/>
+      <c r="AT47" s="21"/>
+      <c r="AU47" s="21"/>
       <c r="AW47">
         <v>7</v>
       </c>
@@ -2154,15 +2177,14 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="AM48" s="23"/>
-      <c r="AN48" s="24"/>
-      <c r="AO48" s="24"/>
-      <c r="AP48" s="24"/>
-      <c r="AQ48" s="24"/>
-      <c r="AR48" s="24"/>
-      <c r="AS48" s="24"/>
-      <c r="AT48" s="24"/>
-      <c r="AU48" s="24"/>
+      <c r="AN48" s="21"/>
+      <c r="AO48" s="21"/>
+      <c r="AP48" s="21"/>
+      <c r="AQ48" s="21"/>
+      <c r="AR48" s="21"/>
+      <c r="AS48" s="21"/>
+      <c r="AT48" s="21"/>
+      <c r="AU48" s="21"/>
       <c r="AW48">
         <v>8</v>
       </c>
@@ -2175,16 +2197,15 @@
       <c r="BD48" s="1"/>
       <c r="BE48" s="1"/>
     </row>
-    <row r="49" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="AM49" s="23"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="24"/>
-      <c r="AP49" s="24"/>
-      <c r="AQ49" s="24"/>
-      <c r="AR49" s="24"/>
-      <c r="AS49" s="24"/>
-      <c r="AT49" s="26"/>
-      <c r="AU49" s="26"/>
+    <row r="49" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="21"/>
+      <c r="AP49" s="21"/>
+      <c r="AQ49" s="21"/>
+      <c r="AR49" s="21"/>
+      <c r="AS49" s="21"/>
+      <c r="AT49" s="9"/>
+      <c r="AU49" s="9"/>
       <c r="AW49">
         <v>9</v>
       </c>
@@ -2197,7 +2218,7 @@
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
     </row>
-    <row r="51" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W51">
         <v>0</v>
       </c>
@@ -2253,7 +2274,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" t="s">
+        <v>12</v>
+      </c>
       <c r="V52">
         <v>0</v>
       </c>
@@ -2298,7 +2325,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <v>5</v>
+      </c>
+      <c r="P53">
+        <v>6</v>
+      </c>
+      <c r="Q53">
+        <v>7</v>
+      </c>
       <c r="V53">
         <v>1</v>
       </c>
@@ -2353,7 +2404,26 @@
       <c r="BD53" s="1"/>
       <c r="BE53" s="1"/>
     </row>
-    <row r="54" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="I54" s="9">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
       <c r="V54">
         <v>2</v>
       </c>
@@ -2373,7 +2443,7 @@
       <c r="AJ54" s="1"/>
       <c r="AK54" s="17"/>
       <c r="AL54" s="1"/>
-      <c r="AW54" s="21">
+      <c r="AW54" s="6">
         <v>1</v>
       </c>
       <c r="AX54" s="4"/>
@@ -2387,7 +2457,22 @@
       <c r="BD54" s="1"/>
       <c r="BE54" s="1"/>
     </row>
-    <row r="55" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="I55" s="6">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O55" s="4"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
       <c r="V55">
         <v>3</v>
       </c>
@@ -2407,7 +2492,7 @@
       <c r="AJ55" s="1"/>
       <c r="AK55" s="17"/>
       <c r="AL55" s="1"/>
-      <c r="AW55" s="20">
+      <c r="AW55">
         <v>2</v>
       </c>
       <c r="AX55" s="4"/>
@@ -2421,7 +2506,22 @@
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
     </row>
-    <row r="56" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
       <c r="V56">
         <v>4</v>
       </c>
@@ -2441,7 +2541,7 @@
       <c r="AJ56" s="1"/>
       <c r="AK56" s="17"/>
       <c r="AL56" s="1"/>
-      <c r="AW56" s="20">
+      <c r="AW56">
         <v>3</v>
       </c>
       <c r="AX56" s="4" t="s">
@@ -2457,7 +2557,22 @@
       <c r="BD56" s="1"/>
       <c r="BE56" s="1"/>
     </row>
-    <row r="57" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
       <c r="V57">
         <v>5</v>
       </c>
@@ -2477,7 +2592,7 @@
       <c r="AJ57" s="1"/>
       <c r="AK57" s="17"/>
       <c r="AL57" s="1"/>
-      <c r="AW57" s="20">
+      <c r="AW57">
         <v>4</v>
       </c>
       <c r="AX57" s="3"/>
@@ -2489,7 +2604,18 @@
       <c r="BD57" s="1"/>
       <c r="BE57" s="1"/>
     </row>
-    <row r="58" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
       <c r="V58">
         <v>6</v>
       </c>
@@ -2521,7 +2647,18 @@
       <c r="BD58" s="1"/>
       <c r="BE58" s="1"/>
     </row>
-    <row r="59" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
       <c r="V59">
         <v>7</v>
       </c>
@@ -2553,7 +2690,18 @@
       <c r="BD59" s="1"/>
       <c r="BE59" s="1"/>
     </row>
-    <row r="60" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
       <c r="V60">
         <v>8</v>
       </c>
@@ -2585,7 +2733,18 @@
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
     </row>
-    <row r="61" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="I61">
+        <v>7</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
       <c r="V61">
         <v>9</v>
       </c>
@@ -2617,7 +2776,18 @@
       <c r="BD61" s="1"/>
       <c r="BE61" s="1"/>
     </row>
-    <row r="62" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
       <c r="V62">
         <v>10</v>
       </c>
@@ -2649,7 +2819,18 @@
       <c r="BD62" s="1"/>
       <c r="BE62" s="1"/>
     </row>
-    <row r="63" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="I63">
+        <v>9</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
       <c r="V63">
         <v>11</v>
       </c>
@@ -2670,7 +2851,7 @@
       <c r="AK63" s="17"/>
       <c r="AL63" s="1"/>
     </row>
-    <row r="64" spans="22:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="9:57" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="V64">
         <v>12</v>
       </c>
